--- a/uploads/attachments/2020/MarDisconnection-Postpaid.xlsx
+++ b/uploads/attachments/2020/MarDisconnection-Postpaid.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BADALA\Downloads\Data Final\Final Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -90,12 +95,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,23 +516,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +553,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="16" t="s">
         <v>2</v>
@@ -591,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
@@ -653,7 +658,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>17</v>
@@ -694,7 +699,7 @@
       </c>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>18</v>
@@ -735,7 +740,7 @@
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -756,7 +761,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
@@ -776,7 +781,7 @@
       <c r="O8" s="7"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -796,7 +801,7 @@
       <c r="O9" s="7"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
@@ -816,7 +821,7 @@
       <c r="O10" s="7"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -838,7 +843,7 @@
       <c r="O11" s="7"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
@@ -880,7 +885,7 @@
       <c r="O12" s="7"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
@@ -922,7 +927,7 @@
       <c r="O13" s="7"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -964,7 +969,7 @@
       <c r="O14" s="7"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>4</v>
       </c>
@@ -986,7 +991,7 @@
       <c r="O15" s="7"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>16</v>
@@ -1006,7 +1011,7 @@
       <c r="O16" s="7"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>17</v>
@@ -1026,7 +1031,7 @@
       <c r="O17" s="7"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>18</v>
@@ -1046,17 +1051,17 @@
       <c r="O18" s="7"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O21" s="12"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O24" s="12"/>
     </row>
   </sheetData>
